--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194544A9-51FD-435E-972F-5C48F4BF86CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E65917D-161B-45AB-BD54-9447A5AEE567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
     <sheet name="背景" sheetId="1" r:id="rId2"/>
     <sheet name="GamePlay" sheetId="3" r:id="rId3"/>
-    <sheet name="建筑" sheetId="5" r:id="rId4"/>
-    <sheet name="战斗" sheetId="10" r:id="rId5"/>
-    <sheet name="订单" sheetId="7" r:id="rId6"/>
-    <sheet name="Ref" sheetId="2" r:id="rId7"/>
+    <sheet name="玩家" sheetId="12" r:id="rId4"/>
+    <sheet name="建筑" sheetId="5" r:id="rId5"/>
+    <sheet name="战斗" sheetId="10" r:id="rId6"/>
+    <sheet name="订单" sheetId="7" r:id="rId7"/>
+    <sheet name="Ref" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="299">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,6 +1181,14 @@
   </si>
   <si>
     <t># 需要有惩罚阻止玩家疯狂扩展，包括基地数量，规模等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义舰船大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2778,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AN92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4191,6 +4200,522 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF3815B-1C64-4706-B37F-583C253BF8E3}">
+  <dimension ref="A2:AN80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="15" customWidth="1"/>
+    <col min="2" max="22" width="5" style="15" customWidth="1"/>
+    <col min="23" max="27" width="5" style="2" customWidth="1"/>
+    <col min="28" max="31" width="5" style="1" customWidth="1"/>
+    <col min="32" max="40" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="22"/>
+    </row>
+    <row r="23" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+    </row>
+    <row r="24" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+    </row>
+    <row r="25" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+    </row>
+    <row r="26" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+    </row>
+    <row r="27" spans="1:40" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="15"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+    </row>
+    <row r="28" spans="1:40" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="23"/>
+    </row>
+    <row r="29" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+    </row>
+    <row r="36" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E41" s="22"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C43" s="22"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E44" s="22"/>
+    </row>
+    <row r="46" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+    </row>
+    <row r="47" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+    </row>
+    <row r="48" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+    </row>
+    <row r="49" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+    </row>
+    <row r="50" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+    </row>
+    <row r="51" spans="1:40" ht="21" x14ac:dyDescent="0.4">
+      <c r="C51" s="25"/>
+    </row>
+    <row r="68" spans="1:40" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D70" s="22"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D74" s="22"/>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D80" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E27657-09A1-4075-9543-85D2D8132F35}">
   <dimension ref="A2:AN49"/>
   <sheetViews>
@@ -4766,7 +5291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B62E0-DBD4-4041-9B0F-16875A209E23}">
   <dimension ref="A2:AN135"/>
   <sheetViews>
@@ -6047,7 +6572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733293-B9C4-4FA9-8647-0B1ABC272B09}">
   <dimension ref="A2:AN89"/>
   <sheetViews>
@@ -6882,7 +7407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C308F5-7B8D-4001-80FC-1B7282245A29}">
   <dimension ref="A1:U1"/>
   <sheetViews>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E65917D-161B-45AB-BD54-9447A5AEE567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C2888-6892-40EC-A56C-709E71156C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5865" yWindow="2310" windowWidth="26310" windowHeight="13095" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="300">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,6 +1189,10 @@
   </si>
   <si>
     <t>舰船名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球主基地    买地=&gt;升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1975,13 +1979,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>78875</xdr:rowOff>
+      <xdr:rowOff>136025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2003,7 +2007,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4162425"/>
+          <a:off x="685800" y="4219575"/>
           <a:ext cx="6429375" cy="3517400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2787,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AN92"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3756,6 +3760,11 @@
         <v>289</v>
       </c>
     </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>15</v>
@@ -3876,8 +3885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0120ED9E-5CAF-4371-8D30-5A3CFD184EC2}">
   <dimension ref="A2:AS104"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4203,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF3815B-1C64-4706-B37F-583C253BF8E3}">
   <dimension ref="A2:AN80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4719,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E27657-09A1-4075-9543-85D2D8132F35}">
   <dimension ref="A2:AN49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5295,8 +5304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B62E0-DBD4-4041-9B0F-16875A209E23}">
   <dimension ref="A2:AN135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6576,8 +6585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733293-B9C4-4FA9-8647-0B1ABC272B09}">
   <dimension ref="A2:AN89"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7411,8 +7420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C308F5-7B8D-4001-80FC-1B7282245A29}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C2888-6892-40EC-A56C-709E71156C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E65917D-161B-45AB-BD54-9447A5AEE567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5865" yWindow="2310" windowWidth="26310" windowHeight="13095" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="299">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,10 +1189,6 @@
   </si>
   <si>
     <t>舰船名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地球主基地    买地=&gt;升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1979,13 +1975,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>136025</xdr:rowOff>
+      <xdr:rowOff>78875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2007,7 +2003,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="4219575"/>
+          <a:off x="685800" y="4162425"/>
           <a:ext cx="6429375" cy="3517400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2791,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AN92"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3760,11 +3756,6 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>15</v>
@@ -3885,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0120ED9E-5CAF-4371-8D30-5A3CFD184EC2}">
   <dimension ref="A2:AS104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4212,8 +4203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF3815B-1C64-4706-B37F-583C253BF8E3}">
   <dimension ref="A2:AN80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4728,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E27657-09A1-4075-9543-85D2D8132F35}">
   <dimension ref="A2:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5304,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B62E0-DBD4-4041-9B0F-16875A209E23}">
   <dimension ref="A2:AN135"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6585,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733293-B9C4-4FA9-8647-0B1ABC272B09}">
   <dimension ref="A2:AN89"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7420,8 +7411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C308F5-7B8D-4001-80FC-1B7282245A29}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E65917D-161B-45AB-BD54-9447A5AEE567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BA7117-3527-4586-92BB-0BDEF6559CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
-    <sheet name="背景" sheetId="1" r:id="rId2"/>
-    <sheet name="GamePlay" sheetId="3" r:id="rId3"/>
-    <sheet name="玩家" sheetId="12" r:id="rId4"/>
-    <sheet name="建筑" sheetId="5" r:id="rId5"/>
-    <sheet name="战斗" sheetId="10" r:id="rId6"/>
-    <sheet name="订单" sheetId="7" r:id="rId7"/>
-    <sheet name="Ref" sheetId="2" r:id="rId8"/>
+    <sheet name="科技树" sheetId="14" r:id="rId2"/>
+    <sheet name="背景" sheetId="1" r:id="rId3"/>
+    <sheet name="GamePlay" sheetId="3" r:id="rId4"/>
+    <sheet name="玩家" sheetId="12" r:id="rId5"/>
+    <sheet name="建筑" sheetId="5" r:id="rId6"/>
+    <sheet name="战斗" sheetId="10" r:id="rId7"/>
+    <sheet name="订单" sheetId="7" r:id="rId8"/>
+    <sheet name="Ref" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="308">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,6 +1190,42 @@
   </si>
   <si>
     <t>舰船名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技树类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会科学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2784,11 +2821,560 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9162225-9ABB-4B2A-A427-40013EBDE99E}">
+  <dimension ref="A2:AN84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="15" customWidth="1"/>
+    <col min="2" max="22" width="5" style="15" customWidth="1"/>
+    <col min="23" max="27" width="5" style="2" customWidth="1"/>
+    <col min="28" max="31" width="5" style="1" customWidth="1"/>
+    <col min="32" max="40" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="M17" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="M19" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+    </row>
+    <row r="28" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+    </row>
+    <row r="29" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+    </row>
+    <row r="30" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+    </row>
+    <row r="31" spans="1:40" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+    </row>
+    <row r="32" spans="1:40" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="23"/>
+    </row>
+    <row r="33" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+    </row>
+    <row r="40" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E45" s="22"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C47" s="22"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E48" s="22"/>
+    </row>
+    <row r="50" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+    </row>
+    <row r="51" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+    </row>
+    <row r="52" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+    </row>
+    <row r="53" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+    </row>
+    <row r="54" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+    </row>
+    <row r="55" spans="1:40" ht="21" x14ac:dyDescent="0.4">
+      <c r="C55" s="25"/>
+    </row>
+    <row r="72" spans="1:40" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D74" s="22"/>
+    </row>
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D78" s="22"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AN92"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3872,12 +4458,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0120ED9E-5CAF-4371-8D30-5A3CFD184EC2}">
   <dimension ref="A2:AS104"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4199,11 +4785,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF3815B-1C64-4706-B37F-583C253BF8E3}">
   <dimension ref="A2:AN80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4715,7 +5301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E27657-09A1-4075-9543-85D2D8132F35}">
   <dimension ref="A2:AN49"/>
   <sheetViews>
@@ -5291,11 +5877,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B62E0-DBD4-4041-9B0F-16875A209E23}">
   <dimension ref="A2:AN135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -6572,7 +7158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733293-B9C4-4FA9-8647-0B1ABC272B09}">
   <dimension ref="A2:AN89"/>
   <sheetViews>
@@ -7407,7 +7993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C308F5-7B8D-4001-80FC-1B7282245A29}">
   <dimension ref="A1:U1"/>
   <sheetViews>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,32 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BA7117-3527-4586-92BB-0BDEF6559CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475CE0C9-A12B-46D8-8F76-C591A732489F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="1740" windowWidth="26295" windowHeight="13635" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
-    <sheet name="科技树" sheetId="14" r:id="rId2"/>
-    <sheet name="背景" sheetId="1" r:id="rId3"/>
+    <sheet name="背景" sheetId="1" r:id="rId2"/>
+    <sheet name="科技树" sheetId="14" r:id="rId3"/>
     <sheet name="GamePlay" sheetId="3" r:id="rId4"/>
-    <sheet name="玩家" sheetId="12" r:id="rId5"/>
+    <sheet name="仿生人组装" sheetId="12" r:id="rId5"/>
     <sheet name="建筑" sheetId="5" r:id="rId6"/>
     <sheet name="战斗" sheetId="10" r:id="rId7"/>
     <sheet name="订单" sheetId="7" r:id="rId8"/>
     <sheet name="Ref" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="330">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,9 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货币</t>
-  </si>
-  <si>
     <t>主要资金：物品\代币</t>
   </si>
   <si>
@@ -320,12 +323,6 @@
     <t>研究</t>
   </si>
   <si>
-    <t>造仓库存食物</t>
-  </si>
-  <si>
-    <t>食物损耗（腐坏）</t>
-  </si>
-  <si>
     <t>结算方式：周期结算</t>
   </si>
   <si>
@@ -347,60 +344,962 @@
     <t>教育（影响研究力[转化率]）</t>
   </si>
   <si>
+    <t>用劳动力进行统一转换</t>
+  </si>
+  <si>
+    <t>比如一个科研建筑，投入人口，会以一个比例进行转化</t>
+  </si>
+  <si>
+    <t>以一个Log函数进行分配比例转化</t>
+  </si>
+  <si>
+    <t>信誉值（终身）</t>
+  </si>
+  <si>
+    <t>信誉增加</t>
+  </si>
+  <si>
+    <t>靠完成订单增加</t>
+  </si>
+  <si>
+    <t>事件增加</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>会影响外交</t>
+  </si>
+  <si>
+    <t>结算方式：实时结算</t>
+  </si>
+  <si>
+    <t>数值大小：最大1e，有小数点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值大了用K限时？还是完全显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗出口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机事件也与时间线有关</t>
+  </si>
+  <si>
+    <t>时间单位</t>
+  </si>
+  <si>
+    <t>可以暂停，游戏倍速</t>
+  </si>
+  <si>
+    <t>一局游戏时长，类似群星一个存档时长，在几十小时左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过订单界面接取订单，订单会按某个规则随机刷新，主要通过订单获取货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单发送者（甲方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单接取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取上限：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一时间只能接取X个订单，X会动态提升，有最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会同时接取同样的订单（同一个ID）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单刷新规则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如1000年12月后开始刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置生成条件可以是多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须全部满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足任意一个，同时进行直到触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础触发的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年增加的触发权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据前置订单完成情况刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如完成ID 100订单10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以是并且或者或者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据订单发送者关系触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据全局事件标记触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单池：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有能接取的订单都会加入到订单池中，订单池没有上限，可以通过筛选规则进行筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单发起者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单内容，一般不超过三个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信誉度奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他特殊物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同阵营最大订单接收量，同时能接取的同发起者最大订单数量（防止无限刷好感度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时，订单的限时状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据完成时订单的状态，获得的奖励不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成：获得正常奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时：如果超时，无法获得任何奖励，同时会受到一定惩罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后订单会进行统计，每个存档单独一份统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源组织信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态信息（是否超时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单标签，是否是特殊订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分订单具有特殊标签，根据标签会有特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加急订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果小于一定规定时间内完成，奖励会进行加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常完成，奖励不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果超时，信誉、关系惩罚会加大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常是类似非法订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后，与发送方的关系会有明显上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对信誉值无加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有概率被其他组织发现，信誉值下降，所有组织关系小幅下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果超时，对关系惩罚大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似一段时间内的订单合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间较长，有多次结算周期，每个结算周期内必须交货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议期间内如果超时X次，协议失效，对信誉、关系影响大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在周期内的结算对信誉值都没有加成，最终结算给与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个协议结算时，会过呢根据情况给与额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有超时情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">订单的超时                                                                                                                                                                                                                                                     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要分为两种类型战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御战：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方势力进行进攻， 用方舟自身的防御系统进行防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御系统分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定被动防御模块，类似防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动防御模块，类似防御机库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵略战争：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动进攻，指派部队进行攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技中有一条线路专门为军事线，细分为主动态和被动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般都需要点被动态，而主动态为军事好战者可以点，最终指向一种末日兵器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时战斗，类似群星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时战斗，自动操控，只需要操控位置，战斗为自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有极少数单位有主动技能操控，大部分只需要装备模块战斗模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦进入战斗状态，除非主动脱战，不然无法进行操控，参考群星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备、单位来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专门的军工工厂生产，生产流程需要复杂工序，不能一次性建造，归结到底归为几类基础资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要事先决定蓝图，工厂会按蓝图进行生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图构成：骨架、作战模块、防御模块等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果蓝图发生变更，上一个蓝图最后生产完毕后会停止生产，直到满足新蓝图条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备、单位细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨架模块：最基础的外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲值：HP，归零后销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击模块：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定基础装甲值，能装备的各个模块数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备、单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一定的DIY元素，可以自己定义型号、自己研发等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会提供一系列基础模版和组件，需要通过科技树进行解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗的基本元素，通过军工厂进行组装建造，需要自己制作或者进口各个部件，最终实现量产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装示意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装目标：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘（原型）会规定好每个部件能够摆放的位置，通常会有比较数个情况能够选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据槽位和数量进行DIY，会根据最终组装的部件生成蓝图，最终在军工厂中选择进行组装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不限于整体，可以连零部件都进行DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIY的单位会根据重量、体积折算出回避率、速度等基础数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害：会根据所有武器折算出一个DPS，只是展示火力值的概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果单位无法造成伤害，则为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标：根据DIY进行生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块的描述，自定义后会有一些改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据自定义进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示在主界面上，决定科研速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御建筑：归到建筑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有物品都归结于这一块，分为基础资源与加工资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工资源都通过工厂加工获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资源获得：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过贸易平台进行贸易（进口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过在天体内建造采集站，使用运输舰船进行运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资源类型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱逐舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡洋舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战列舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资源的分类需要点对点分类，种类比较多，根据最终需要制造的进行概括</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资源通过直接采集获得，一般为自然资源或者基础加工品（如钢）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾模块：生成外层护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定基础护盾值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力模块：决定单位速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景，Plan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景，Plan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考外星贸易公司,在游戏中成为一名企业家，在此经济策略游戏中竭力控制火星市场。以取得火星殖民地市场的资源配给垄断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过接取和完成订单获得资金进行建设和科研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合前置生成条件后，根据基础权重，每过一年再增加权重，直到触发或满足销毁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技树非常庞大，点不完所有的科技，只能针对点其中一个分支，类似POE的技能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于科技的说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技认为是玩家企业的技术力，但同时还有其他企业和世界范围内进行的科学研究，实际上有部分科技已经被研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 玩家可以进行申请专利，将科技私有化（只有部分科技可以被私有化，这些专利科技会影响全局）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经被研究的科技如果是公开的，可以直接被使用（类似世界共享），部分科技可能被其他企业专利占据（专门有专利科技），这些就无法再研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 全局科技的进展和全局参数有关，所以会有一个类似“世界”的全局参数系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要目的是从事资源的开采——加工——出售，也可以进行倒卖，可以在全星图范围内进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始科技水平可以刚刚进行星际航行（仅限于行星系），但航行的时间也需要很久，理论上最大可扩展范围不会很远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景在不远的未来，地球的资源被开采殆尽，而星际航行和星际建设技术的逐渐成熟，使得行星资源开采可行性一步步上升，而玩家则扮演一位第一梯队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事星球开采获取利润，可以为军火商、高科技器材制造商各种身份，完全取决于玩家自己的决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行行星资源开采的组织的总裁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于多行星的说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家会面临其他势力的威胁，其中包括竞争对手的威胁和太空索马里海盗的威胁（甚至会出动部队进行基地袭击）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以在多个行星上建立生产基地，具体见其他说明，基地之间可以进行货运，开拓新的行星基地需要出动远航的星际母舰（会被海盗攻击）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个行星基地在运作的同时，其他基地都处于冻结状态（完全不运作，防止多线操作带来的蛋疼局面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地之间能进行货运流通，通过星际货运船进行货运，建立贸易路线，（所有基地仓库状态会存储，在加载时会动态调整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！可能会出现漏洞，需要后续详细设计，比如出现无限刷物资的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 需要有惩罚阻止玩家疯狂扩展，包括基地数量，规模等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技树类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景，Plan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>科技树被动加成</t>
-  </si>
-  <si>
-    <t>用劳动力进行统一转换</t>
-  </si>
-  <si>
-    <t>比如一个科研建筑，投入人口，会以一个比例进行转化</t>
-  </si>
-  <si>
-    <t>以一个Log函数进行分配比例转化</t>
-  </si>
-  <si>
-    <t>信誉值（终身）</t>
-  </si>
-  <si>
-    <t>信誉增加</t>
-  </si>
-  <si>
-    <t>靠完成订单增加</t>
-  </si>
-  <si>
-    <t>事件增加</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <t>会影响外交</t>
-  </si>
-  <si>
-    <t>结算方式：实时结算</t>
-  </si>
-  <si>
-    <t>数值大小：最大1e，有小数点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值大了用K限时？还是完全显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗出口：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓展面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币（资金）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以天为基本单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天现实时间X秒，1月一个结算节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为生命体与智能人（人工智能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家身份为未来人工智能（仿生人）生产厂商，从事人工智能研究、制造以及销售一体化，需要将人工智能售卖到各个领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿生人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿生人属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终目标：抢占仿生人市场份额，实现细分领域的制霸或者全领域制霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续部分稀有材料需要从外太空进行获取，会有星际航行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要玩法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零部件生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种型号、用途仿生人组装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取、完成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零部件、核心技术的购买或垄断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个大存档就是一个企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利目标：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资金到达XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现X个领域的市场份额达到50%以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体背景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22XX年，距离智械危机发生已经经过了数十年，无数的智械大军以及各处废墟是人类文明遭到毁灭性打击后留下的产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考Blame，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅存的人类建立了有限范围的殖民地，分散在世界的各个角落，彼此间只能通过有限的手段进行联系（大概是运输机？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在没有外部控制命令的干预下，几乎所有地方都被暴走的机械大军所控制（设定为地面都四处充满了具有攻击性的仿生人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -408,824 +1307,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>满足建筑和其他模块的的供能要求，不需要铺设电线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有有蓄能装置才能进行蓄能，否则处于溢出状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机事件也与时间线有关</t>
-  </si>
-  <si>
-    <t>时间单位</t>
-  </si>
-  <si>
-    <t>可以暂停，游戏倍速</t>
-  </si>
-  <si>
-    <t>一局游戏时长，类似群星一个存档时长，在几十小时左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000年，1个月现实时间X分钟，1年一个结算节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以通过订单界面接取订单，订单会按某个规则随机刷新，主要通过订单获取货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单发送者（甲方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个体组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单接取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接取上限：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一时间只能接取X个订单，X会动态提升，有最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会同时接取同样的订单（同一个ID）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单刷新规则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据时间刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如1000年12月后开始刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置生成条件可以是多个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>||</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须全部满足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满足任意一个，同时进行直到触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础触发的权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年增加的触发权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据前置订单完成情况刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如完成ID 100订单10次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以是并且或者或者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据订单发送者关系触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据全局事件标记触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单池：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有能接取的订单都会加入到订单池中，订单池没有上限，可以通过筛选规则进行筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单发起者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单内容，一般不超过三个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信誉度奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他特殊物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同阵营最大订单接收量，同时能接取的同发起者最大订单数量（防止无限刷好感度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时，订单的限时状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据完成时订单的状态，获得的奖励不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成：获得正常奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时：如果超时，无法获得任何奖励，同时会受到一定惩罚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成后订单会进行统计，每个存档单独一份统计数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源组织信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态信息（是否超时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单标签，是否是特殊订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分订单具有特殊标签，根据标签会有特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加急订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果小于一定规定时间内完成，奖励会进行加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常完成，奖励不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果超时，信誉、关系惩罚会加大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘密订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通常是类似非法订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成后，与发送方的关系会有明显上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对信誉值无加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有概率被其他组织发现，信誉值下降，所有组织关系小幅下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果超时，对关系惩罚大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似一段时间内的订单合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间较长，有多次结算周期，每个结算周期内必须交货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议期间内如果超时X次，协议失效，对信誉、关系影响大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在周期内的结算对信誉值都没有加成，最终结算给与</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个协议结算时，会过呢根据情况给与额外奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完美完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有超时情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">订单的超时                                                                                                                                                                                                                                                     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要分为两种类型战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御战：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方势力进行进攻， 用方舟自身的防御系统进行防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御系统分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定被动防御模块，类似防御塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动防御模块，类似防御机库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侵略战争：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动进攻，指派部队进行攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技中有一条线路专门为军事线，细分为主动态和被动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般都需要点被动态，而主动态为军事好战者可以点，最终指向一种末日兵器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时战斗，类似群星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时战斗，自动操控，只需要操控位置，战斗为自动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有极少数单位有主动技能操控，大部分只需要装备模块战斗模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一旦进入战斗状态，除非主动脱战，不然无法进行操控，参考群星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备、单位来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专门的军工工厂生产，生产流程需要复杂工序，不能一次性建造，归结到底归为几类基础资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军工生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要事先决定蓝图，工厂会按蓝图进行生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝图构成：骨架、作战模块、防御模块等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果蓝图发生变更，上一个蓝图最后生产完毕后会停止生产，直到满足新蓝图条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备、单位细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨架模块：最基础的外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装甲值：HP，归零后销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击模块：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定基础装甲值，能装备的各个模块数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备、单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一定的DIY元素，可以自己定义型号、自己研发等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会提供一系列基础模版和组件，需要通过科技树进行解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗的基本元素，通过军工厂进行组装建造，需要自己制作或者进口各个部件，最终实现量产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组装示意：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组装目标：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何DIY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底盘（原型）会规定好每个部件能够摆放的位置，通常会有比较数个情况能够选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据槽位和数量进行DIY，会根据最终组装的部件生成蓝图，最终在军工厂中选择进行组装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不限于整体，可以连零部件都进行DIY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIY的单位会根据重量、体积折算出回避率、速度等基础数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害：会根据所有武器折算出一个DPS，只是展示火力值的概念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果单位无法造成伤害，则为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标：根据DIY进行生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块的描述，自定义后会有一些改动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据自定义进行调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示在主界面上，决定科研速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御建筑：归到建筑中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为生命体与智能人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有物品都归结于这一块，分为基础资源与加工资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工资源都通过工厂加工获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资源获得：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过贸易平台进行贸易（进口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过在天体内建造采集站，使用运输舰船进行运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资源类型：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱逐舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡洋舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战列舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资源的分类需要点对点分类，种类比较多，根据最终需要制造的进行概括</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资源通过直接采集获得，一般为自然资源或者基础加工品（如钢）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军工订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾模块：生成外层护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定基础护盾值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力模块：决定单位速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事背景，Plan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事背景，Plan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考外星贸易公司,在游戏中成为一名企业家，在此经济策略游戏中竭力控制火星市场。以取得火星殖民地市场的资源配给垄断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算方式：实时满足供应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过接取和完成订单获得资金进行建设和科研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符合前置生成条件后，根据基础权重，每过一年再增加权重，直到触发或满足销毁条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技树非常庞大，点不完所有的科技，只能针对点其中一个分支，类似POE的技能树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于科技的说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技认为是玩家企业的技术力，但同时还有其他企业和世界范围内进行的科学研究，实际上有部分科技已经被研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 玩家可以进行申请专利，将科技私有化（只有部分科技可以被私有化，这些专利科技会影响全局）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经被研究的科技如果是公开的，可以直接被使用（类似世界共享），部分科技可能被其他企业专利占据（专门有专利科技），这些就无法再研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 全局科技的进展和全局参数有关，所以会有一个类似“世界”的全局参数系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要目的是从事资源的开采——加工——出售，也可以进行倒卖，可以在全星图范围内进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家初始科技水平可以刚刚进行星际航行（仅限于行星系），但航行的时间也需要很久，理论上最大可扩展范围不会很远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事背景在不远的未来，地球的资源被开采殆尽，而星际航行和星际建设技术的逐渐成熟，使得行星资源开采可行性一步步上升，而玩家则扮演一位第一梯队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从事星球开采获取利润，可以为军火商、高科技器材制造商各种身份，完全取决于玩家自己的决定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行行星资源开采的组织的总裁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于多行星的说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存档说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家会面临其他势力的威胁，其中包括竞争对手的威胁和太空索马里海盗的威胁（甚至会出动部队进行基地袭击）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个大存档就是一个企业，每个行星基地独立运作，一个基地在加载的同时，其他基地都处于冻结状态（只进行货运物质流通）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有与玩家自身绑定的东西（资源、科技等）所有基地都互通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家可以在多个行星上建立生产基地，具体见其他说明，基地之间可以进行货运，开拓新的行星基地需要出动远航的星际母舰（会被海盗攻击）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在一个行星基地在运作的同时，其他基地都处于冻结状态（完全不运作，防止多线操作带来的蛋疼局面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基地之间能进行货运流通，通过星际货运船进行货运，建立贸易路线，（所有基地仓库状态会存储，在加载时会动态调整）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！可能会出现漏洞，需要后续详细设计，比如出现无限刷物资的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 需要有惩罚阻止玩家疯狂扩展，包括基地数量，规模等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义舰船大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰船名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技树类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产制造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会科学</t>
+    <t>武装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectronicClip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,7 +1431,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,6 +1459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1492,6 +1596,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1627,13 +1738,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>29818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1676,13 +1787,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>183018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1720,13 +1831,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>174542</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1764,13 +1875,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>166307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1808,13 +1919,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>80503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1852,13 +1963,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>170840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2821,11 +2932,1289 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AN134"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
+    <col min="2" max="27" width="5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5" style="1" customWidth="1"/>
+    <col min="29" max="31" width="5" style="2" customWidth="1"/>
+    <col min="32" max="40" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:31" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="AD2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AE5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="30"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="30"/>
+      <c r="AE8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="29"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="29"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="29"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="29"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="29"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="29"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="30"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="30"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="30"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="30"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="30"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="30"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="30"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="30"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="30"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="30"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="30"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="30"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="30"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+      <c r="C28" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="30"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="30"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="30"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="30"/>
+    </row>
+    <row r="32" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+    </row>
+    <row r="33" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C35" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C36" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C37" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C38" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C39" s="6"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+      <c r="D69" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+      <c r="D70" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="D71" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C75" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C120" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C125" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C126" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9162225-9ABB-4B2A-A427-40013EBDE99E}">
   <dimension ref="A2:AN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2843,48 +4232,48 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C6" s="22"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="M15" s="15" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="M17" s="15" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="M19" s="15" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3369,1101 +4758,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AN92"/>
-  <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
-    <col min="2" max="27" width="5" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5" style="1" customWidth="1"/>
-    <col min="29" max="31" width="5" style="2" customWidth="1"/>
-    <col min="32" max="40" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:31" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="AD2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="AE3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="AE5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="30"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="30"/>
-      <c r="AE8" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="29"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="29"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="29"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="29"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="29"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="29"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="30"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="30"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="30"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="30"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="30"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="30"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="30"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="30"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="30"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="30"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="30"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="30"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="30"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="30"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="30"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="30"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="30"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C33" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C34" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C35" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C36" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C37" s="6"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D52" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C55" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D57" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C61" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C62" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D63" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D64" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C77" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D78" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D79" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0120ED9E-5CAF-4371-8D30-5A3CFD184EC2}">
   <dimension ref="A2:AS104"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4480,89 +4780,92 @@
       </c>
       <c r="C2" s="4"/>
       <c r="U2" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="V2" s="4"/>
     </row>
     <row r="4" spans="2:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
@@ -4570,212 +4873,180 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="3:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="6"/>
     </row>
-    <row r="24" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C25" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C26" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="C29" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="X32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="X34" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="X36" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="18" x14ac:dyDescent="0.35">
       <c r="C37" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D41" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E42" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E43" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="C49" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D55" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D58" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C92" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4787,10 +5058,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF3815B-1C64-4706-B37F-583C253BF8E3}">
-  <dimension ref="A2:AN80"/>
+  <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4802,21 +5073,71 @@
     <col min="32" max="40" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="22"/>
     </row>
     <row r="23" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5303,10 +5624,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E27657-09A1-4075-9543-85D2D8132F35}">
-  <dimension ref="A2:AN49"/>
+  <dimension ref="A2:AN58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5388,7 +5709,9 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -5405,6 +5728,12 @@
     </row>
     <row r="10" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -5419,34 +5748,30 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="2:40" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>41</v>
-      </c>
+    <row r="11" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
     </row>
     <row r="12" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
-      <c r="C12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="13"/>
+      <c r="C12" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -5461,189 +5786,136 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="16"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="C15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="16"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="19"/>
-    </row>
-    <row r="17" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="18" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="16"/>
-    </row>
-    <row r="19" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="16"/>
-    </row>
-    <row r="20" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="19"/>
-    </row>
-    <row r="21" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+    </row>
+    <row r="14" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+    </row>
+    <row r="15" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+    </row>
+    <row r="16" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+    </row>
+    <row r="17" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+    </row>
+    <row r="18" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+    </row>
+    <row r="19" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+    </row>
+    <row r="20" spans="2:40" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
       <c r="C21" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -5663,10 +5935,23 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
       <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C22" s="14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -5687,185 +5972,388 @@
       <c r="T22" s="15"/>
       <c r="U22" s="16"/>
     </row>
-    <row r="23" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="19"/>
-    </row>
-    <row r="24" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="9" t="s">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="16"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="13"/>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="19"/>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-    </row>
-    <row r="25" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="2" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+    </row>
+    <row r="34" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-    </row>
-    <row r="26" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="2" t="s">
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+    </row>
+    <row r="35" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="6"/>
+      <c r="D35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-    </row>
-    <row r="27" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="2" t="s">
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+    </row>
+    <row r="36" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="6"/>
+      <c r="D36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-    </row>
-    <row r="28" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+    </row>
+    <row r="37" spans="3:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-    </row>
-    <row r="29" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="D29" s="2" t="s">
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+    </row>
+    <row r="38" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="D30" s="2" t="s">
+    <row r="39" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C31" s="2" t="s">
+    <row r="40" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="D32" s="2" t="s">
+    <row r="41" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="D41" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D33" s="2" t="s">
+    <row r="42" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
+    <row r="43" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J41"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="D47" s="2" t="s">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J50"/>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E48" s="2" t="s">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E57" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="2" t="s">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E58" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5881,7 +6369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B62E0-DBD4-4041-9B0F-16875A209E23}">
   <dimension ref="A2:AN135"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -5896,7 +6384,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -5907,110 +6395,110 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" s="15" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D7" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E8" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E9" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F10" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F11" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D12" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E13" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C18" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C20" s="15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C21" s="15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="22.5" x14ac:dyDescent="0.4">
       <c r="C23" s="27" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C24" s="22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="U24" s="22" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C25" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C26" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -6138,7 +6626,7 @@
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="22" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -6182,7 +6670,7 @@
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -6226,7 +6714,7 @@
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -6270,7 +6758,7 @@
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -6356,7 +6844,7 @@
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -6442,7 +6930,7 @@
       <c r="A38" s="15"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -6481,7 +6969,7 @@
       <c r="A39" s="15"/>
       <c r="B39" s="22"/>
       <c r="C39" s="15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -6520,7 +7008,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="22"/>
       <c r="C40" s="15" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -6560,7 +7048,7 @@
       <c r="B41" s="22"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -6599,7 +7087,7 @@
       <c r="B42" s="22"/>
       <c r="C42" s="25"/>
       <c r="D42" s="15" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -6636,7 +7124,7 @@
     <row r="43" spans="1:40" ht="18" x14ac:dyDescent="0.35">
       <c r="B43" s="23"/>
       <c r="D43" s="15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6678,42 +7166,42 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C45" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C46" s="15" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C47" s="22"/>
       <c r="D47" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C48" s="22"/>
       <c r="D48" s="15" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="22"/>
       <c r="E49" s="15" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="22"/>
       <c r="E50" s="15" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="22"/>
       <c r="E51" s="15" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.3">
@@ -6722,7 +7210,7 @@
     <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" s="22"/>
       <c r="D53" s="15" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.3">
@@ -6731,37 +7219,37 @@
     <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
       <c r="E55" s="15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" s="22"/>
       <c r="E56" s="15" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" s="22"/>
       <c r="E57" s="15" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" s="22"/>
       <c r="E58" s="15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" s="22"/>
       <c r="E59" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" s="22"/>
       <c r="E60" s="15" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
@@ -6769,35 +7257,35 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" s="15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D63" s="15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D64" s="15" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" s="22"/>
       <c r="D65" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66" s="22"/>
       <c r="D66" s="15" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67" s="22"/>
       <c r="E67" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.3">
@@ -6844,68 +7332,68 @@
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" s="15" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D84" s="15" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E85" s="15" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D86" s="15" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E87" s="15" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D88" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="15" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E92" s="15" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F93" s="15" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C94" s="22"/>
       <c r="E94" s="22"/>
       <c r="F94" s="15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F95" s="15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
@@ -7162,7 +7650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733293-B9C4-4FA9-8647-0B1ABC272B09}">
   <dimension ref="A2:AN89"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -7177,95 +7665,95 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C2" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D8" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D9" s="15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D10" s="15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D11" s="15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E12" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D13" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D14" s="15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D15" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D16" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E17" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E18" s="15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E19" s="15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D20" s="15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -7305,7 +7793,7 @@
       <c r="B24" s="22"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -7344,7 +7832,7 @@
       <c r="B25" s="22"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -7419,7 +7907,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="22"/>
       <c r="C27" s="25" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -7457,7 +7945,7 @@
     <row r="28" spans="1:40" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
       <c r="D28" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7466,7 +7954,7 @@
       <c r="C29" s="22"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -7501,96 +7989,96 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E30" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E31" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D32" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E33" s="15" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E34" s="15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F35" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C39" s="22"/>
       <c r="E39" s="22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F40" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E41" s="22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F42" s="15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C43" s="22"/>
       <c r="F43" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E44" s="22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F45" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7600,7 +8088,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -7638,7 +8126,7 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -7676,7 +8164,7 @@
       <c r="B48" s="15"/>
       <c r="C48" s="22"/>
       <c r="D48" s="15" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -7716,7 +8204,7 @@
       <c r="C49" s="22"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -7788,69 +8276,69 @@
     </row>
     <row r="51" spans="1:40" ht="21" x14ac:dyDescent="0.4">
       <c r="C51" s="25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D52" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E53" s="15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E54" s="15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D55" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D60" s="15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E61" s="15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E62" s="15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F63" s="15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F64" s="15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F65" s="15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F66" s="15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:40" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="25" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -7887,102 +8375,102 @@
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D69" s="15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D70" s="22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E71" s="15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E72" s="15" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E73" s="15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D74" s="22" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E75" s="15" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E76" s="15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E77" s="15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E78" s="15" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E79" s="15" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D80" s="22" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E81" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E82" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F83" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F84" s="15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E85" s="15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F86" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F87" s="15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D89" s="22" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7997,8 +8485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C308F5-7B8D-4001-80FC-1B7282245A29}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475CE0C9-A12B-46D8-8F76-C591A732489F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20954F-A098-4198-BC70-A1441943DFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="1740" windowWidth="26295" windowHeight="13635" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1110" windowWidth="26295" windowHeight="13635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
     <sheet name="背景" sheetId="1" r:id="rId2"/>
     <sheet name="科技树" sheetId="14" r:id="rId3"/>
     <sheet name="GamePlay" sheetId="3" r:id="rId4"/>
-    <sheet name="仿生人组装" sheetId="12" r:id="rId5"/>
+    <sheet name="机械组装" sheetId="12" r:id="rId5"/>
     <sheet name="建筑" sheetId="5" r:id="rId6"/>
     <sheet name="战斗" sheetId="10" r:id="rId7"/>
     <sheet name="订单" sheetId="7" r:id="rId8"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="351">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,21 +329,6 @@
     <t>资源</t>
   </si>
   <si>
-    <t>造完之后的单位时间内会从0涨到一个值</t>
-  </si>
-  <si>
-    <t>如一个劳工城市，放下去之后0点人口，会根据粮食盈余情况或者指标会增长或者减少，直到最大值</t>
-  </si>
-  <si>
-    <t>抽象地块（劳工城市）</t>
-  </si>
-  <si>
-    <t>男女比例？根据模型统计人口模型（复杂），进行人口增长或者减少</t>
-  </si>
-  <si>
-    <t>教育（影响研究力[转化率]）</t>
-  </si>
-  <si>
     <t>用劳动力进行统一转换</t>
   </si>
   <si>
@@ -353,977 +338,1081 @@
     <t>以一个Log函数进行分配比例转化</t>
   </si>
   <si>
+    <t>信誉增加</t>
+  </si>
+  <si>
+    <t>靠完成订单增加</t>
+  </si>
+  <si>
+    <t>事件增加</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>会影响外交</t>
+  </si>
+  <si>
+    <t>结算方式：实时结算</t>
+  </si>
+  <si>
+    <t>数值大了用K限时？还是完全显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗出口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机事件也与时间线有关</t>
+  </si>
+  <si>
+    <t>时间单位</t>
+  </si>
+  <si>
+    <t>可以暂停，游戏倍速</t>
+  </si>
+  <si>
+    <t>一局游戏时长，类似群星一个存档时长，在几十小时左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过订单界面接取订单，订单会按某个规则随机刷新，主要通过订单获取货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单发送者（甲方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单接取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取上限：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一时间只能接取X个订单，X会动态提升，有最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会同时接取同样的订单（同一个ID）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单刷新规则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如1000年12月后开始刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置生成条件可以是多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>||</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须全部满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足任意一个，同时进行直到触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础触发的权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年增加的触发权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据前置订单完成情况刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如完成ID 100订单10次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以是并且或者或者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据订单发送者关系触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据全局事件标记触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单池：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有能接取的订单都会加入到订单池中，订单池没有上限，可以通过筛选规则进行筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单发起者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单内容，一般不超过三个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信誉度奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他特殊物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同阵营最大订单接收量，同时能接取的同发起者最大订单数量（防止无限刷好感度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时，订单的限时状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据完成时订单的状态，获得的奖励不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成：获得正常奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时：如果超时，无法获得任何奖励，同时会受到一定惩罚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后订单会进行统计，每个存档单独一份统计数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源组织信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态信息（是否超时）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单标签，是否是特殊订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分订单具有特殊标签，根据标签会有特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加急订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果小于一定规定时间内完成，奖励会进行加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常完成，奖励不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果超时，信誉、关系惩罚会加大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常是类似非法订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后，与发送方的关系会有明显上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对信誉值无加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有概率被其他组织发现，信誉值下降，所有组织关系小幅下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果超时，对关系惩罚大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似一段时间内的订单合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间较长，有多次结算周期，每个结算周期内必须交货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议期间内如果超时X次，协议失效，对信誉、关系影响大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在周期内的结算对信誉值都没有加成，最终结算给与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个协议结算时，会过呢根据情况给与额外奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有超时情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">订单的超时                                                                                                                                                                                                                                                     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要分为两种类型战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御战：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方势力进行进攻， 用方舟自身的防御系统进行防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御系统分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定被动防御模块，类似防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动防御模块，类似防御机库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵略战争：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动进攻，指派部队进行攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技中有一条线路专门为军事线，细分为主动态和被动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般都需要点被动态，而主动态为军事好战者可以点，最终指向一种末日兵器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时战斗，类似群星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时战斗，自动操控，只需要操控位置，战斗为自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有极少数单位有主动技能操控，大部分只需要装备模块战斗模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦进入战斗状态，除非主动脱战，不然无法进行操控，参考群星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备、单位来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专门的军工工厂生产，生产流程需要复杂工序，不能一次性建造，归结到底归为几类基础资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要事先决定蓝图，工厂会按蓝图进行生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图构成：骨架、作战模块、防御模块等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果蓝图发生变更，上一个蓝图最后生产完毕后会停止生产，直到满足新蓝图条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备、单位细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨架模块：最基础的外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲值：HP，归零后销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击模块：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定基础装甲值，能装备的各个模块数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备、单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一定的DIY元素，可以自己定义型号、自己研发等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会提供一系列基础模版和组件，需要通过科技树进行解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗的基本元素，通过军工厂进行组装建造，需要自己制作或者进口各个部件，最终实现量产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装示意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装目标：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘（原型）会规定好每个部件能够摆放的位置，通常会有比较数个情况能够选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据槽位和数量进行DIY，会根据最终组装的部件生成蓝图，最终在军工厂中选择进行组装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不限于整体，可以连零部件都进行DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIY的单位会根据重量、体积折算出回避率、速度等基础数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害：会根据所有武器折算出一个DPS，只是展示火力值的概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果单位无法造成伤害，则为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标：根据DIY进行生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块的描述，自定义后会有一些改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据自定义进行调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示在主界面上，决定科研速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御建筑：归到建筑中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有物品都归结于这一块，分为基础资源与加工资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工资源都通过工厂加工获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资源获得：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过贸易平台进行贸易（进口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过在天体内建造采集站，使用运输舰船进行运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资源类型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资源的分类需要点对点分类，种类比较多，根据最终需要制造的进行概括</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资源通过直接采集获得，一般为自然资源或者基础加工品（如钢）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军工订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾模块：生成外层护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定基础护盾值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力模块：决定单位速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景，Plan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景，Plan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考外星贸易公司,在游戏中成为一名企业家，在此经济策略游戏中竭力控制火星市场。以取得火星殖民地市场的资源配给垄断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过接取和完成订单获得资金进行建设和科研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合前置生成条件后，根据基础权重，每过一年再增加权重，直到触发或满足销毁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技树非常庞大，点不完所有的科技，只能针对点其中一个分支，类似POE的技能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于科技的说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技认为是玩家企业的技术力，但同时还有其他企业和世界范围内进行的科学研究，实际上有部分科技已经被研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 玩家可以进行申请专利，将科技私有化（只有部分科技可以被私有化，这些专利科技会影响全局）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经被研究的科技如果是公开的，可以直接被使用（类似世界共享），部分科技可能被其他企业专利占据（专门有专利科技），这些就无法再研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 全局科技的进展和全局参数有关，所以会有一个类似“世界”的全局参数系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要目的是从事资源的开采——加工——出售，也可以进行倒卖，可以在全星图范围内进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始科技水平可以刚刚进行星际航行（仅限于行星系），但航行的时间也需要很久，理论上最大可扩展范围不会很远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景在不远的未来，地球的资源被开采殆尽，而星际航行和星际建设技术的逐渐成熟，使得行星资源开采可行性一步步上升，而玩家则扮演一位第一梯队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事星球开采获取利润，可以为军火商、高科技器材制造商各种身份，完全取决于玩家自己的决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行行星资源开采的组织的总裁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于多行星的说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家会面临其他势力的威胁，其中包括竞争对手的威胁和太空索马里海盗的威胁（甚至会出动部队进行基地袭击）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以在多个行星上建立生产基地，具体见其他说明，基地之间可以进行货运，开拓新的行星基地需要出动远航的星际母舰（会被海盗攻击）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个行星基地在运作的同时，其他基地都处于冻结状态（完全不运作，防止多线操作带来的蛋疼局面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地之间能进行货运流通，通过星际货运船进行货运，建立贸易路线，（所有基地仓库状态会存储，在加载时会动态调整）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！可能会出现漏洞，需要后续详细设计，比如出现无限刷物资的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 需要有惩罚阻止玩家疯狂扩展，包括基地数量，规模等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技树类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景，Plan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技树被动加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以天为基本单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天现实时间X秒，1月一个结算节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为生命体与智能人（人工智能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要玩法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个大存档就是一个企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体背景：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22XX年，距离智械危机发生已经经过了数十年，无数的智械大军以及各处废墟是人类文明遭到毁灭性打击后留下的产物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在没有外部控制命令的干预下，几乎所有地方都被暴走的机械大军所控制（设定为地面都四处充满了具有攻击性的仿生人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectronicClip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造体属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械组装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装大类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似仿生人、高智能机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、建设者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于建筑建设或出口（订单）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块构成：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>信誉值（终身）</t>
-  </si>
-  <si>
-    <t>信誉增加</t>
-  </si>
-  <si>
-    <t>靠完成订单增加</t>
-  </si>
-  <si>
-    <t>事件增加</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <t>会影响外交</t>
-  </si>
-  <si>
-    <t>结算方式：实时结算</t>
-  </si>
-  <si>
-    <t>数值大小：最大1e，有小数点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值大了用K限时？还是完全显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗出口：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓展面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机事件也与时间线有关</t>
-  </si>
-  <si>
-    <t>时间单位</t>
-  </si>
-  <si>
-    <t>可以暂停，游戏倍速</t>
-  </si>
-  <si>
-    <t>一局游戏时长，类似群星一个存档时长，在几十小时左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以通过订单界面接取订单，订单会按某个规则随机刷新，主要通过订单获取货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单发送者（甲方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个体组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单接取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接取上限：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一时间只能接取X个订单，X会动态提升，有最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会同时接取同样的订单（同一个ID）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单刷新规则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据时间刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如1000年12月后开始刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置生成条件可以是多个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>||</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须全部满足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满足任意一个，同时进行直到触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础触发的权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年增加的触发权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据前置订单完成情况刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如完成ID 100订单10次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以是并且或者或者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据订单发送者关系触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据全局事件标记触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单池：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有能接取的订单都会加入到订单池中，订单池没有上限，可以通过筛选规则进行筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单发起者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单内容，一般不超过三个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信誉度奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他特殊物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同阵营最大订单接收量，同时能接取的同发起者最大订单数量（防止无限刷好感度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时，订单的限时状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据完成时订单的状态，获得的奖励不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成：获得正常奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超时：如果超时，无法获得任何奖励，同时会受到一定惩罚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成后订单会进行统计，每个存档单独一份统计数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源组织信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态信息（是否超时）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单标签，是否是特殊订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分订单具有特殊标签，根据标签会有特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加急订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果小于一定规定时间内完成，奖励会进行加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常完成，奖励不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果超时，信誉、关系惩罚会加大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘密订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通常是类似非法订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成后，与发送方的关系会有明显上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对信誉值无加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有概率被其他组织发现，信誉值下降，所有组织关系小幅下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果超时，对关系惩罚大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似一段时间内的订单合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间较长，有多次结算周期，每个结算周期内必须交货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议期间内如果超时X次，协议失效，对信誉、关系影响大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在周期内的结算对信誉值都没有加成，最终结算给与</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个协议结算时，会过呢根据情况给与额外奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完美完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有超时情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">订单的超时                                                                                                                                                                                                                                                     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要分为两种类型战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御战：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方势力进行进攻， 用方舟自身的防御系统进行防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御系统分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定被动防御模块，类似防御塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动防御模块，类似防御机库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侵略战争：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动进攻，指派部队进行攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技中有一条线路专门为军事线，细分为主动态和被动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般都需要点被动态，而主动态为军事好战者可以点，最终指向一种末日兵器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时战斗，类似群星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时战斗，自动操控，只需要操控位置，战斗为自动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有极少数单位有主动技能操控，大部分只需要装备模块战斗模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一旦进入战斗状态，除非主动脱战，不然无法进行操控，参考群星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备、单位来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专门的军工工厂生产，生产流程需要复杂工序，不能一次性建造，归结到底归为几类基础资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军工生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要事先决定蓝图，工厂会按蓝图进行生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝图构成：骨架、作战模块、防御模块等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果蓝图发生变更，上一个蓝图最后生产完毕后会停止生产，直到满足新蓝图条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备、单位细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨架模块：最基础的外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装甲值：HP，归零后销毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击模块：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定基础装甲值，能装备的各个模块数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备、单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一定的DIY元素，可以自己定义型号、自己研发等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会提供一系列基础模版和组件，需要通过科技树进行解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗的基本元素，通过军工厂进行组装建造，需要自己制作或者进口各个部件，最终实现量产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组装示意：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组装目标：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何DIY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底盘（原型）会规定好每个部件能够摆放的位置，通常会有比较数个情况能够选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据槽位和数量进行DIY，会根据最终组装的部件生成蓝图，最终在军工厂中选择进行组装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不限于整体，可以连零部件都进行DIY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIY的单位会根据重量、体积折算出回避率、速度等基础数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害：会根据所有武器折算出一个DPS，只是展示火力值的概念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果单位无法造成伤害，则为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标：根据DIY进行生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块的描述，自定义后会有一些改动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据自定义进行调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示在主界面上，决定科研速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御建筑：归到建筑中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护卫舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有物品都归结于这一块，分为基础资源与加工资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加工资源都通过工厂加工获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资源获得：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过贸易平台进行贸易（进口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过在天体内建造采集站，使用运输舰船进行运输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资源类型：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱逐舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡洋舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战列舰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资源的分类需要点对点分类，种类比较多，根据最终需要制造的进行概括</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资源通过直接采集获得，一般为自然资源或者基础加工品（如钢）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军工订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾模块：生成外层护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定基础护盾值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动力模块：决定单位速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事背景，Plan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事背景，Plan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考外星贸易公司,在游戏中成为一名企业家，在此经济策略游戏中竭力控制火星市场。以取得火星殖民地市场的资源配给垄断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过接取和完成订单获得资金进行建设和科研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符合前置生成条件后，根据基础权重，每过一年再增加权重，直到触发或满足销毁条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技树非常庞大，点不完所有的科技，只能针对点其中一个分支，类似POE的技能树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于科技的说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技认为是玩家企业的技术力，但同时还有其他企业和世界范围内进行的科学研究，实际上有部分科技已经被研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 玩家可以进行申请专利，将科技私有化（只有部分科技可以被私有化，这些专利科技会影响全局）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经被研究的科技如果是公开的，可以直接被使用（类似世界共享），部分科技可能被其他企业专利占据（专门有专利科技），这些就无法再研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 全局科技的进展和全局参数有关，所以会有一个类似“世界”的全局参数系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要目的是从事资源的开采——加工——出售，也可以进行倒卖，可以在全星图范围内进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家初始科技水平可以刚刚进行星际航行（仅限于行星系），但航行的时间也需要很久，理论上最大可扩展范围不会很远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事背景在不远的未来，地球的资源被开采殆尽，而星际航行和星际建设技术的逐渐成熟，使得行星资源开采可行性一步步上升，而玩家则扮演一位第一梯队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从事星球开采获取利润，可以为军火商、高科技器材制造商各种身份，完全取决于玩家自己的决定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行行星资源开采的组织的总裁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于多行星的说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存档说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家会面临其他势力的威胁，其中包括竞争对手的威胁和太空索马里海盗的威胁（甚至会出动部队进行基地袭击）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家可以在多个行星上建立生产基地，具体见其他说明，基地之间可以进行货运，开拓新的行星基地需要出动远航的星际母舰（会被海盗攻击）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在一个行星基地在运作的同时，其他基地都处于冻结状态（完全不运作，防止多线操作带来的蛋疼局面）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基地之间能进行货运流通，通过星际货运船进行货运，建立贸易路线，（所有基地仓库状态会存储，在加载时会动态调整）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！可能会出现漏洞，需要后续详细设计，比如出现无限刷物资的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 需要有惩罚阻止玩家疯狂扩展，包括基地数量，规模等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技树类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产制造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事背景，Plan3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技树被动加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币（资金）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以天为基本单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1天现实时间X秒，1月一个结算节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为生命体与智能人（人工智能）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家身份为未来人工智能（仿生人）生产厂商，从事人工智能研究、制造以及销售一体化，需要将人工智能售卖到各个领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仿生人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仿生人属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终目标：抢占仿生人市场份额，实现细分领域的制霸或者全领域制霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续部分稀有材料需要从外太空进行获取，会有星际航行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要玩法：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零部件生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种型号、用途仿生人组装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接取、完成订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零部件、核心技术的购买或垄断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个大存档就是一个企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜利目标：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资金到达XXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现X个领域的市场份额达到50%以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体背景：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22XX年，距离智械危机发生已经经过了数十年，无数的智械大军以及各处废墟是人类文明遭到毁灭性打击后留下的产物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考Blame，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅存的人类建立了有限范围的殖民地，分散在世界的各个角落，彼此间只能通过有限的手段进行联系（大概是运输机？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在没有外部控制命令的干预下，几乎所有地方都被暴走的机械大军所控制（设定为地面都四处充满了具有攻击性的仿生人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElectronicClip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机事件和人的结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大头在军事上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五五开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武装模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识模块（灵魂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智核不能自己生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件、购买、 发放（每年发X个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡戎</t>
+  </si>
+  <si>
+    <t>人类被迫往外太空移民，95%的移民舰都遭到了失败，仅存的人类只能向着地球返程，重新寻求反攻地球的时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32XX年，超光速移民舰——光岛级到达地球轨道上空，并取得了与其他已到达的殖民舰的联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>328X年，光岛级移民舰向着地球各个角落发射了若干登陆舰，开始反攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家扮演其中一艘登陆舰，共计若干名人类工程师，从零开始打造基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智核： 制造构造体的核心部件，由于核心生产设施已废弃，现阶段已无法生产出如此复杂的装置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类似 “灵魂的容器”，能够赋予构造体灵魂，并拥有有限的 自我思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现阶段智核 已经有限，玩家只能通过 总部补给、其他基地交易、事件等方式获得，无法通过自己生产，决定了制造构造体的数量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从原料采掘到自己生产零件，最终能够制造出构造体，并打造自己的军队，占领区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终目标为击败地区敌对核心枢纽，获得区域控制权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料采掘——基础零件生产（处理芯片、动力装置）——构造体生产——夺取并收复失地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高维度生物入侵，产生“∑ 孢子”，∑ 密度极高， 拥有高速增殖能力，并且能够进行质量展开，对非生物以及生命体都具有强大的破坏作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主要体现在突变上，无论是机械装置还是各类动植物，在短时间内都会突变，并对外继续释放∑孢子 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取、完成其他基地或其他总部的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殖民舰下属支队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种型号、用途构造体组装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组建部队——夺回被控制区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值大小：，有小数点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹石（资金）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,13 +1827,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>29818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1770,6 +1859,50 @@
         <a:xfrm>
           <a:off x="7715250" y="15011400"/>
           <a:ext cx="3095625" cy="3725518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>408609</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FC7308-3D3F-4CD3-B085-1EA150891F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="13677900"/>
+          <a:ext cx="7723809" cy="1180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1961,16 +2094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>170840</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2000,7 +2133,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3352800" y="8715376"/>
+          <a:off x="3314700" y="10325101"/>
           <a:ext cx="2047875" cy="1170964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2933,10 +3066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AN134"/>
+  <dimension ref="A2:AN143"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2980,7 +3113,7 @@
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>27</v>
@@ -3840,12 +3973,12 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C35" s="32" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -3870,7 +4003,7 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C36" s="6" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -3895,7 +4028,7 @@
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -3920,7 +4053,7 @@
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -3968,22 +4101,22 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.3">
@@ -3994,211 +4127,229 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D48" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="6" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D53" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="6" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D59" s="2" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D60" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D61" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
       <c r="D69" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="D70" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
-      <c r="D71" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C74" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C75" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D76" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C79" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D80" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="D77" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D81" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C84" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D85" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E82" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E83" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C85" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D86" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D88" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E87" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E88" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C92" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="D93" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="D94" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D95" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D96" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D97" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C120" s="6" t="s">
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C129" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D121" s="2" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D122" s="2" t="s">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C125" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C126" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C132" s="4"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C134" s="2" t="s">
-        <v>313</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C135" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C143" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4214,7 +4365,7 @@
   <dimension ref="A2:AN84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4232,48 +4383,48 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C6" s="22"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="M15" s="15" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="M17" s="15" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="M19" s="15" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4760,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0120ED9E-5CAF-4371-8D30-5A3CFD184EC2}">
-  <dimension ref="A2:AS104"/>
+  <dimension ref="A2:AS70"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4780,17 +4931,17 @@
       </c>
       <c r="C2" s="4"/>
       <c r="U2" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="V2" s="4"/>
     </row>
     <row r="4" spans="2:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -4799,7 +4950,7 @@
         <v>66</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -4814,7 +4965,7 @@
         <v>68</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -4823,7 +4974,7 @@
         <v>69</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -4831,7 +4982,7 @@
         <v>70</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -4840,22 +4991,22 @@
         <v>71</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
@@ -4875,178 +5026,147 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-    </row>
-    <row r="24" spans="3:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C24" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C29" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="C37" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C21" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C26" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C34" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C46" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D41" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C49" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="2" t="s">
-        <v>245</v>
+      <c r="D52" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D55" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D56" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C57" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D58" s="2" t="s">
-        <v>254</v>
+      <c r="C58" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5061,7 +5181,7 @@
   <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5075,7 +5195,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -5133,17 +5253,168 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C4" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C6" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C7" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D9" s="22" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C6" s="22"/>
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E10" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E11" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E12" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E13" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U14" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="P16" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="E17" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C18" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="D20" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
     </row>
     <row r="23" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -5156,7 +5427,9 @@
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="P23" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
@@ -5193,7 +5466,9 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="P24" s="15" t="s">
+        <v>323</v>
+      </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
@@ -5254,7 +5529,9 @@
     <row r="26" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="22" t="s">
+        <v>316</v>
+      </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -5626,8 +5903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E27657-09A1-4075-9543-85D2D8132F35}">
   <dimension ref="A2:AN58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5710,7 +5987,7 @@
     </row>
     <row r="9" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -5729,10 +6006,10 @@
     <row r="10" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -5751,7 +6028,7 @@
     <row r="11" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -5770,7 +6047,7 @@
     <row r="12" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -5789,7 +6066,7 @@
     <row r="13" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -5808,7 +6085,7 @@
     <row r="14" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -5827,7 +6104,7 @@
     <row r="15" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -6369,8 +6646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B62E0-DBD4-4041-9B0F-16875A209E23}">
   <dimension ref="A2:AN135"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6384,7 +6661,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C2" s="21"/>
     </row>
@@ -6395,110 +6672,110 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" s="15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D7" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E8" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E9" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F10" s="15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F11" s="15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D12" s="15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E13" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C18" s="22" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C20" s="15" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C21" s="15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="22.5" x14ac:dyDescent="0.4">
       <c r="C23" s="27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C24" s="22" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="U24" s="22" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C25" s="15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C26" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:40" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -6626,7 +6903,7 @@
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -6670,7 +6947,7 @@
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -6714,7 +6991,7 @@
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -6758,7 +7035,7 @@
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -6844,7 +7121,7 @@
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -6930,7 +7207,7 @@
       <c r="A38" s="15"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -6969,7 +7246,7 @@
       <c r="A39" s="15"/>
       <c r="B39" s="22"/>
       <c r="C39" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -7008,7 +7285,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="22"/>
       <c r="C40" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -7048,7 +7325,7 @@
       <c r="B41" s="22"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -7087,7 +7364,7 @@
       <c r="B42" s="22"/>
       <c r="C42" s="25"/>
       <c r="D42" s="15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -7124,7 +7401,7 @@
     <row r="43" spans="1:40" ht="18" x14ac:dyDescent="0.35">
       <c r="B43" s="23"/>
       <c r="D43" s="15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7166,126 +7443,99 @@
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C45" s="22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C46" s="15" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C47" s="22"/>
       <c r="D47" s="22" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C48" s="22"/>
       <c r="D48" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="22"/>
-      <c r="E49" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="22"/>
-      <c r="E50" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="22"/>
-      <c r="E51" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="22"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="22"/>
       <c r="D53" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="22"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="22"/>
-      <c r="E55" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="22"/>
-      <c r="E56" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" s="22"/>
-      <c r="E57" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="22"/>
-      <c r="E58" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C59" s="22"/>
-      <c r="E59" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" s="22"/>
-      <c r="E60" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" s="22"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D63" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D64" s="15" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" s="22"/>
       <c r="D65" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66" s="22"/>
       <c r="D66" s="15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67" s="22"/>
       <c r="E67" s="15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.3">
@@ -7332,68 +7582,68 @@
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" s="15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D84" s="15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E85" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D86" s="15" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E87" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D88" s="15" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E92" s="15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F93" s="15" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C94" s="22"/>
       <c r="E94" s="22"/>
       <c r="F94" s="15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F95" s="15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H95" s="15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
@@ -7650,7 +7900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733293-B9C4-4FA9-8647-0B1ABC272B09}">
   <dimension ref="A2:AN89"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -7665,95 +7915,95 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C2" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D7" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D8" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D9" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D10" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D11" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E12" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D13" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D14" s="15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D15" s="15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D16" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E17" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E18" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E19" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D20" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -7793,7 +8043,7 @@
       <c r="B24" s="22"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -7832,7 +8082,7 @@
       <c r="B25" s="22"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -7907,7 +8157,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="22"/>
       <c r="C27" s="25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -7945,7 +8195,7 @@
     <row r="28" spans="1:40" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
       <c r="D28" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7954,7 +8204,7 @@
       <c r="C29" s="22"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -7989,96 +8239,96 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E30" s="15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E31" s="15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D32" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E33" s="15" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E34" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F35" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F36" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C39" s="22"/>
       <c r="E39" s="22" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F40" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E41" s="22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F42" s="15" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C43" s="22"/>
       <c r="F43" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E44" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F45" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8088,7 +8338,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -8126,7 +8376,7 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -8164,7 +8414,7 @@
       <c r="B48" s="15"/>
       <c r="C48" s="22"/>
       <c r="D48" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -8204,7 +8454,7 @@
       <c r="C49" s="22"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -8276,69 +8526,69 @@
     </row>
     <row r="51" spans="1:40" ht="21" x14ac:dyDescent="0.4">
       <c r="C51" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D52" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E53" s="15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E54" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D55" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D60" s="15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E61" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E62" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F63" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F64" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F65" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.3">
       <c r="F66" s="15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:40" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="25" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -8375,102 +8625,102 @@
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D69" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D70" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E71" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E72" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E73" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D74" s="22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E75" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E76" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E77" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E78" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E79" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D80" s="22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E81" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E82" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F83" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F84" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E85" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F86" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F87" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D89" s="22" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20954F-A098-4198-BC70-A1441943DFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC963E7-FD3C-47D1-BA63-9606FB6C7BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1110" windowWidth="26295" windowHeight="13635" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16200" yWindow="3735" windowWidth="26295" windowHeight="13635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
     <sheet name="背景" sheetId="1" r:id="rId2"/>
     <sheet name="科技树" sheetId="14" r:id="rId3"/>
     <sheet name="GamePlay" sheetId="3" r:id="rId4"/>
-    <sheet name="机械组装" sheetId="12" r:id="rId5"/>
-    <sheet name="建筑" sheetId="5" r:id="rId6"/>
-    <sheet name="战斗" sheetId="10" r:id="rId7"/>
-    <sheet name="订单" sheetId="7" r:id="rId8"/>
-    <sheet name="Ref" sheetId="2" r:id="rId9"/>
+    <sheet name="探索" sheetId="15" r:id="rId5"/>
+    <sheet name="机械组装" sheetId="12" r:id="rId6"/>
+    <sheet name="建筑" sheetId="5" r:id="rId7"/>
+    <sheet name="战斗" sheetId="10" r:id="rId8"/>
+    <sheet name="订单" sheetId="7" r:id="rId9"/>
+    <sheet name="Ref" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="378">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1413,6 +1414,114 @@
   </si>
   <si>
     <t>虹石（资金）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索准备：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索过程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索路线选择（选择探索点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个探索点拥有不同消耗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始点——某个分支——具体点位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线选择：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索奖励/惩罚：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得科技加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 选择目标点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定后续事件基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 探索队配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要资源配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点位分支剧情选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索结果（最终）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源携带上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次探索配置携带上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似galgame，会开启一个局内事件串，导向不同结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索大区——大区分支（按完成度随机）——具体单次探索分支生成——探索点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1420,7 +1529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,6 +1627,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1650,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1692,6 +1810,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1915,6 +2034,99 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>13158</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8F7EBE-3DFC-4368-A8AA-33DD75271A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="838200"/>
+          <a:ext cx="3099258" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F414A0FC-5EC2-49E0-B617-7D36A0EE2092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13373100" y="838200"/>
+          <a:ext cx="4800600" cy="3076113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2156,7 +2368,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2205,7 +2417,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3064,11 +3276,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C308F5-7B8D-4001-80FC-1B7282245A29}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="21" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AN143"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
@@ -4913,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0120ED9E-5CAF-4371-8D30-5A3CFD184EC2}">
   <dimension ref="A2:AS70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5177,11 +5408,281 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09797122-A2D1-404C-B60F-D9A4B10EDD62}">
+  <dimension ref="A1:BT41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS6" sqref="AS6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="50" width="4.5" style="1" customWidth="1"/>
+    <col min="51" max="72" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:72" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+    </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B3" s="39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B7" s="39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B8" s="39"/>
+    </row>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B10" s="39"/>
+      <c r="D10" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B11" s="39"/>
+      <c r="D11" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="B12" s="39"/>
+    </row>
+    <row r="13" spans="1:72" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="26"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="26"/>
+      <c r="BM13" s="26"/>
+      <c r="BN13" s="26"/>
+      <c r="BO13" s="26"/>
+      <c r="BP13" s="26"/>
+      <c r="BQ13" s="26"/>
+      <c r="BR13" s="26"/>
+      <c r="BS13" s="26"/>
+      <c r="BT13" s="26"/>
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="39" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF3815B-1C64-4706-B37F-583C253BF8E3}">
   <dimension ref="A1:AN80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5899,7 +6400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E27657-09A1-4075-9543-85D2D8132F35}">
   <dimension ref="A2:AN58"/>
   <sheetViews>
@@ -6642,7 +7143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B62E0-DBD4-4041-9B0F-16875A209E23}">
   <dimension ref="A2:AN135"/>
   <sheetViews>
@@ -7896,7 +8397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF733293-B9C4-4FA9-8647-0B1ABC272B09}">
   <dimension ref="A2:AN89"/>
   <sheetViews>
@@ -8729,23 +9230,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C308F5-7B8D-4001-80FC-1B7282245A29}">
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="21" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC963E7-FD3C-47D1-BA63-9606FB6C7BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D1D90-C26F-4840-B10C-FB2151C72AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="3735" windowWidth="26295" windowHeight="13635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2145" windowWidth="24780" windowHeight="12330" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="382">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1522,6 +1522,22 @@
   </si>
   <si>
     <t>探索大区——大区分支（按完成度随机）——具体单次探索分支生成——探索点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具人，只配置类型与数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员限制‘’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞船限制、等级限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞船配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,13 +2055,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>13158</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2083,13 +2099,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5409,10 +5425,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09797122-A2D1-404C-B60F-D9A4B10EDD62}">
-  <dimension ref="A1:BT41"/>
+  <dimension ref="A1:BT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS6" sqref="AS6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5494,12 +5510,17 @@
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="B12" s="39"/>
+      <c r="D12" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="13" spans="1:72" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="D13" s="26" t="s">
+        <v>380</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -5569,103 +5590,185 @@
       <c r="BS13" s="26"/>
       <c r="BT13" s="26"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:72" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="26"/>
+      <c r="BC14" s="26"/>
+      <c r="BD14" s="26"/>
+      <c r="BE14" s="26"/>
+      <c r="BF14" s="26"/>
+      <c r="BG14" s="26"/>
+      <c r="BH14" s="26"/>
+      <c r="BI14" s="26"/>
+      <c r="BJ14" s="26"/>
+      <c r="BK14" s="26"/>
+      <c r="BL14" s="26"/>
+      <c r="BM14" s="26"/>
+      <c r="BN14" s="26"/>
+      <c r="BO14" s="26"/>
+      <c r="BP14" s="26"/>
+      <c r="BQ14" s="26"/>
+      <c r="BR14" s="26"/>
+      <c r="BS14" s="26"/>
+      <c r="BT14" s="26"/>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="1" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="39" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="39" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="39" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D32" s="1" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="39" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="39" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="39" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>362</v>
       </c>
     </row>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D1D90-C26F-4840-B10C-FB2151C72AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81F2B6-3A46-4AD3-8736-18D631952FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2145" windowWidth="24780" windowHeight="12330" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2340" windowWidth="24720" windowHeight="12315" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="400">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1538,6 +1538,78 @@
   </si>
   <si>
     <t>飞船配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船队配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NX级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服役时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大成员人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5425,10 +5497,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09797122-A2D1-404C-B60F-D9A4B10EDD62}">
-  <dimension ref="A1:BT42"/>
+  <dimension ref="A1:BT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5674,102 +5746,212 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="1" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="1" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E23" s="1" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="39" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="39" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="39" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="1" t="s">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="39" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B38" s="39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="39" t="s">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C40" s="39" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B48" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C49" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D50" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D51" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D54" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D56" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -7250,7 +7432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3B62E0-DBD4-4041-9B0F-16875A209E23}">
   <dimension ref="A2:AN135"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81F2B6-3A46-4AD3-8736-18D631952FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBCCC59-0480-451A-922A-1DF38AB4D524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2340" windowWidth="24720" windowHeight="12315" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="415">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1561,14 +1561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NX级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1597,10 +1589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最高速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1610,6 +1598,78 @@
   </si>
   <si>
     <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块装备：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终影响属性：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船规模（由选择基础船体决定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX级，初始选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船种类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索舰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5497,10 +5557,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09797122-A2D1-404C-B60F-D9A4B10EDD62}">
-  <dimension ref="A1:BT61"/>
+  <dimension ref="A1:BT66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5856,7 +5916,7 @@
     </row>
     <row r="46" spans="1:27" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -5889,69 +5949,125 @@
         <v>384</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="J49" s="39" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M49" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="W49" s="39" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="N51" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D51" s="1" t="s">
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D52" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D53" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M53" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E56" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="E58" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D56" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D57" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D58" s="1" t="s">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBCCC59-0480-451A-922A-1DF38AB4D524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEEEE53-7EBA-499A-A961-81758E26945D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="428">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1589,10 +1589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>探索队伍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1670,6 +1666,62 @@
   </si>
   <si>
     <t>探索舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货仓储量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎部件属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测部件属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器部件属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2236,7 +2288,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>180513</xdr:rowOff>
     </xdr:to>
@@ -5557,16 +5609,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09797122-A2D1-404C-B60F-D9A4B10EDD62}">
-  <dimension ref="A1:BT66"/>
+  <dimension ref="A1:BT86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="AA62" sqref="AA62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="Z78" sqref="Z78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="50" width="4.5" style="1" customWidth="1"/>
-    <col min="51" max="72" width="9" style="1"/>
+    <col min="51" max="51" width="8.625" style="1" customWidth="1"/>
+    <col min="52" max="72" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5916,7 +5969,7 @@
     </row>
     <row r="46" spans="1:27" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -5957,7 +6010,7 @@
         <v>389</v>
       </c>
       <c r="W49" s="39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.2">
@@ -5965,13 +6018,13 @@
         <v>386</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>388</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.2">
@@ -5981,10 +6034,10 @@
     </row>
     <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.2">
@@ -5995,10 +6048,10 @@
         <v>384</v>
       </c>
       <c r="M53" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="R53" s="39" t="s">
         <v>400</v>
-      </c>
-      <c r="R53" s="39" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.2">
@@ -6006,48 +6059,61 @@
         <v>391</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E56" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E57" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M57" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R57" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="R59" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="R60" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="3:23" x14ac:dyDescent="0.2">
@@ -6059,15 +6125,95 @@
       <c r="D62" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="R62" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="R63" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B76" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="L76" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q76" s="39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/GameDesign/GamePlay.xlsx
+++ b/GameMaster/GameDesign/GamePlay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEEEE53-7EBA-499A-A961-81758E26945D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B939DD-BCBD-42D2-ACD6-41DA7BA56EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="战斗" sheetId="10" r:id="rId8"/>
     <sheet name="订单" sheetId="7" r:id="rId9"/>
     <sheet name="Ref" sheetId="2" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="429">
   <si>
     <t>概述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1722,6 +1723,10 @@
   </si>
   <si>
     <t>命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1968,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2011,80 +2016,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2714,7 +2654,7 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007-2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3495,6 +3435,109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4663B67-AE96-49E1-8A11-C5DCADD9065A}">
+  <dimension ref="B7:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="19" width="4.125" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="40">
+        <v>2</v>
+      </c>
+      <c r="E8" s="40">
+        <v>3</v>
+      </c>
+      <c r="F8" s="40">
+        <v>4</v>
+      </c>
+      <c r="G8" s="40">
+        <v>5</v>
+      </c>
+      <c r="H8" s="40">
+        <v>6</v>
+      </c>
+      <c r="I8" s="40">
+        <v>7</v>
+      </c>
+      <c r="J8" s="40">
+        <v>8</v>
+      </c>
+      <c r="K8" s="40">
+        <v>9</v>
+      </c>
+      <c r="L8" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="40">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AN143"/>
@@ -5611,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09797122-A2D1-404C-B60F-D9A4B10EDD62}">
   <dimension ref="A1:BT86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="Z78" sqref="Z78"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6951,7 +6994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E27657-09A1-4075-9543-85D2D8132F35}">
   <dimension ref="A2:AN58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
